--- a/www/terminologies/ValueSet-jdv-modificateur-topographique-cisis.xlsx
+++ b/www/terminologies/ValueSet-jdv-modificateur-topographique-cisis.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>20250624152100</t>
+    <t>20251028115832</t>
   </si>
   <si>
     <t>Name</t>
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-24T15:21:00+01:00</t>
+    <t>2025-10-28T11:58:32+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -102,19 +102,19 @@
     <t>24028007</t>
   </si>
   <si>
-    <t>droit</t>
+    <t>côté droit</t>
   </si>
   <si>
     <t>7771000</t>
   </si>
   <si>
-    <t>gauche</t>
+    <t>côté gauche</t>
   </si>
   <si>
     <t>51440002</t>
   </si>
   <si>
-    <t>bilatéral</t>
+    <t>bilatéral(e)</t>
   </si>
   <si>
     <t>66459002</t>
@@ -228,13 +228,13 @@
     <t>60583000</t>
   </si>
   <si>
-    <t>postaxial</t>
+    <t>postaxial(e)</t>
   </si>
   <si>
     <t>32400000</t>
   </si>
   <si>
-    <t>préaxial</t>
+    <t>préaxial(e)</t>
   </si>
   <si>
     <t>43674008</t>
@@ -300,7 +300,7 @@
     <t>30730003</t>
   </si>
   <si>
-    <t>sagital(le)</t>
+    <t>sagittal(e)</t>
   </si>
   <si>
     <t>24422004</t>
@@ -372,7 +372,7 @@
     <t>112233002</t>
   </si>
   <si>
-    <t>marginal</t>
+    <t>marginal(e)</t>
   </si>
   <si>
     <t/>

--- a/www/terminologies/ValueSet-jdv-modificateur-topographique-cisis.xlsx
+++ b/www/terminologies/ValueSet-jdv-modificateur-topographique-cisis.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>20251028115832</t>
+    <t>20251216141838</t>
   </si>
   <si>
     <t>Name</t>
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T11:58:32+01:00</t>
+    <t>2025-12-16T14:18:38+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
